--- a/Dados_do_sistema_e_capacitores.xlsx
+++ b/Dados_do_sistema_e_capacitores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Desktop\Projeto Inrush\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60748485-53A5-4F7B-9BF2-637CFDA0DBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F32B7D1-F019-4CBC-88AE-17E1FC40955E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
@@ -74,12 +74,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.\ 000\ \ \ ###"/>
-    <numFmt numFmtId="165" formatCode="###\ ###\ ##0"/>
-    <numFmt numFmtId="166" formatCode="0.000\ \ \ ###"/>
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +106,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -162,10 +167,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -176,48 +182,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -496,221 +482,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF60687-361A-45BF-A803-2C7C7DAEFDB5}">
-  <dimension ref="B1:K15"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="1:10" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="16">
+      <c r="B2" s="6">
         <v>12000</v>
       </c>
-      <c r="D3" s="1">
+      <c r="C2" s="6">
         <v>20</v>
       </c>
-      <c r="E3" s="1">
+      <c r="D2" s="6">
         <v>30</v>
       </c>
-      <c r="F3" s="4">
+      <c r="E2" s="6">
         <v>0.39600000000000002</v>
       </c>
-      <c r="G3" s="12">
+      <c r="F2" s="6">
         <v>0.32900000000000001</v>
       </c>
-      <c r="H3" s="1">
+      <c r="G2" s="6">
         <v>200</v>
       </c>
-      <c r="I3" s="1">
+      <c r="H2" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="8">
+      <c r="B3" s="7">
         <v>12000</v>
       </c>
-      <c r="D4" s="2">
+      <c r="C3" s="7">
         <v>20</v>
       </c>
-      <c r="E4" s="2">
+      <c r="D3" s="7">
         <v>30</v>
       </c>
-      <c r="F4" s="5">
+      <c r="E3" s="7">
         <v>0.39600000000000002</v>
       </c>
-      <c r="G4" s="13">
+      <c r="F3" s="7">
         <v>0.32900000000000001</v>
       </c>
-      <c r="H4" s="2">
+      <c r="G3" s="7">
         <v>200</v>
       </c>
-      <c r="I4" s="2">
+      <c r="H3" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
+      <c r="D5" s="9"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>7</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>9</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="15"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Dados_do_sistema_e_capacitores.xlsx
+++ b/Dados_do_sistema_e_capacitores.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Desktop\Projeto Inrush\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://daxenergy-my.sharepoint.com/personal/aah_dax_energy/Documents/Projeto Inrush/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F32B7D1-F019-4CBC-88AE-17E1FC40955E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{3F32B7D1-F019-4CBC-88AE-17E1FC40955E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A85E1EE8-090A-423E-AC7F-201B3EBD109D}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -171,7 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -201,6 +202,7 @@
     <xf numFmtId="43" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -217,6 +219,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>305302</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>167686</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3D330A0-E3F3-1C49-2F6C-FFDF7F24A6C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5791702" cy="533446"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -484,16 +535,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF60687-361A-45BF-A803-2C7C7DAEFDB5}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -519,7 +570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -545,7 +596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -571,7 +622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -583,7 +634,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -595,7 +646,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -608,7 +659,7 @@
       <c r="H6" s="6"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -620,7 +671,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -632,7 +683,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -644,7 +695,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -657,7 +708,7 @@
       <c r="H10" s="6"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -669,7 +720,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -681,7 +732,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -693,10 +744,55 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF78B582-2329-4C56-8313-E51A85609F39}">
+  <dimension ref="A6:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>10830000</v>
+      </c>
+      <c r="B6" s="11">
+        <v>34500</v>
+      </c>
+      <c r="D6" s="11">
+        <f>A6/B6</f>
+        <v>313.91304347826087</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="11">
+        <f>D6/SQRT(3)</f>
+        <v>181.23778015430861</v>
+      </c>
+      <c r="E7" s="11">
+        <f>10900/D7</f>
+        <v>60.1419857974401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="11">
+        <f>B6/SQRT(3)</f>
+        <v>19918.584287042089</v>
+      </c>
+      <c r="C9" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>